--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/data/regular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D4016-ACA5-8D48-90AE-46504FAC3BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D352A2C-FCE5-4F45-B5FB-7D8AB6EBE647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="460" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>pthread</t>
   </si>
@@ -171,6 +169,9 @@
   </si>
   <si>
     <t>TBB</t>
+  </si>
+  <si>
+    <t>NUMAlloc</t>
   </si>
 </sst>
 </file>
@@ -432,7 +433,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>numalloc</c:v>
+                  <c:v>NUMAlloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1525,7 +1526,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1590,16 +1591,33 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15540941245521447"/>
+          <c:y val="3.4414947251641279E-2"/>
+          <c:w val="0.68918103928847829"/>
+          <c:h val="6.2130090126514222E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" baseline="0">
+            <a:defRPr sz="1100" baseline="0">
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
@@ -4407,16 +4425,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>432963</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29076</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567434</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>364052</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>96710</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>498522</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>111651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4688,11 +4706,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.38375</cdr:x>
+      <cdr:x>0.37621</cdr:x>
       <cdr:y>0.10867</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.45029</cdr:x>
+      <cdr:x>0.44275</cdr:x>
       <cdr:y>0.17501</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -4708,8 +4726,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2821756" y="405254"/>
-          <a:ext cx="489307" cy="247402"/>
+          <a:off x="2770305" y="401020"/>
+          <a:ext cx="489981" cy="244812"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4720,58 +4738,19 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2.11</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08571</cdr:x>
-      <cdr:y>0.41978</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98417</cdr:x>
-      <cdr:y>0.41978</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9E5433-4676-594B-8DAF-873D785C0085}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="630720" y="1552693"/>
-          <a:ext cx="6611335" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -5075,8 +5054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="235" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5749,7 +5728,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>41</v>
@@ -6178,31 +6157,31 @@
         <v>32</v>
       </c>
       <c r="B43" s="1">
-        <f>B14/B14</f>
+        <f t="shared" ref="B43:B49" si="7">B14/B14</f>
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f>C14/B14</f>
+        <f t="shared" ref="C43:C49" si="8">C14/B14</f>
         <v>1.0179410508329774</v>
       </c>
       <c r="D43" s="4">
-        <f>D14/B14</f>
+        <f t="shared" ref="D43:D49" si="9">D14/B14</f>
         <v>1.0226398974797095</v>
       </c>
       <c r="E43" s="4">
-        <f>E14/B14</f>
+        <f t="shared" ref="E43:E49" si="10">E14/B14</f>
         <v>1.0098248611704399</v>
       </c>
       <c r="F43" s="4">
-        <f>F14/B14</f>
+        <f t="shared" ref="F43:F49" si="11">F14/B14</f>
         <v>0.99752242631354127</v>
       </c>
       <c r="G43" s="4">
-        <f>G14/B14</f>
+        <f t="shared" ref="G43:G49" si="12">G14/B14</f>
         <v>1.0085433575395131</v>
       </c>
       <c r="H43" s="4">
-        <f>H14/B14</f>
+        <f t="shared" ref="H43:H49" si="13">H14/B14</f>
         <v>1.0038445108927809</v>
       </c>
     </row>
@@ -6211,31 +6190,31 @@
         <v>33</v>
       </c>
       <c r="B44" s="1">
-        <f>B15/B15</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C44" s="4">
-        <f>C15/B15</f>
+        <f t="shared" si="8"/>
         <v>0.65956313265849764</v>
       </c>
       <c r="D44" s="4">
-        <f>D15/B15</f>
+        <f t="shared" si="9"/>
         <v>0.98668087373468305</v>
       </c>
       <c r="E44" s="4">
-        <f>E15/B15</f>
+        <f t="shared" si="10"/>
         <v>1.0095897709110282</v>
       </c>
       <c r="F44" s="4">
-        <f>F15/B15</f>
+        <f t="shared" si="11"/>
         <v>0.96750133191262655</v>
       </c>
       <c r="G44" s="4">
-        <f>G15/B15</f>
+        <f t="shared" si="12"/>
         <v>1.0026638252530635</v>
       </c>
       <c r="H44" s="4">
-        <f>H15/B15</f>
+        <f t="shared" si="13"/>
         <v>0.94725625998934482</v>
       </c>
     </row>
@@ -6244,31 +6223,31 @@
         <v>34</v>
       </c>
       <c r="B45" s="1">
-        <f>B16/B16</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <f>C16/B16</f>
+        <f t="shared" si="8"/>
         <v>0.97616665280951398</v>
       </c>
       <c r="D45" s="4">
-        <f>D16/B16</f>
+        <f t="shared" si="9"/>
         <v>0.99997133002864136</v>
       </c>
       <c r="E45" s="4">
-        <f>E16/B16</f>
+        <f t="shared" si="10"/>
         <v>1.0000028669971359</v>
       </c>
       <c r="F45" s="4">
-        <f>F16/B16</f>
+        <f t="shared" si="11"/>
         <v>1.0001599784401816</v>
       </c>
       <c r="G45" s="4">
-        <f>G16/B16</f>
+        <f t="shared" si="12"/>
         <v>0.99115531383584154</v>
       </c>
       <c r="H45" s="4">
-        <f>H16/B16</f>
+        <f t="shared" si="13"/>
         <v>1.0005389954615436</v>
       </c>
     </row>
@@ -6277,31 +6256,31 @@
         <v>35</v>
       </c>
       <c r="B46" s="1">
-        <f>B17/B17</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C46" s="4">
-        <f>C17/B17</f>
+        <f t="shared" si="8"/>
         <v>0.99400879183210433</v>
       </c>
       <c r="D46" s="4">
-        <f>D17/B17</f>
+        <f t="shared" si="9"/>
         <v>0.9888152297220647</v>
       </c>
       <c r="E46" s="4">
-        <f>E17/B17</f>
+        <f t="shared" si="10"/>
         <v>0.98592597844583107</v>
       </c>
       <c r="F46" s="4">
-        <f>F17/B17</f>
+        <f t="shared" si="11"/>
         <v>0.99505104934770294</v>
       </c>
       <c r="G46" s="4">
-        <f>G17/B17</f>
+        <f t="shared" si="12"/>
         <v>1.0013648610323311</v>
       </c>
       <c r="H46" s="4">
-        <f>H17/B17</f>
+        <f t="shared" si="13"/>
         <v>1.0433919455473626</v>
       </c>
     </row>
@@ -6310,31 +6289,31 @@
         <v>36</v>
       </c>
       <c r="B47" s="1">
-        <f>B18/B18</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C47" s="4">
-        <f>C18/B18</f>
+        <f t="shared" si="8"/>
         <v>1.0654938681387793</v>
       </c>
       <c r="D47" s="4">
-        <f>D18/B18</f>
+        <f t="shared" si="9"/>
         <v>0.99848013696237037</v>
       </c>
       <c r="E47" s="4">
-        <f>E18/B18</f>
+        <f t="shared" si="10"/>
         <v>0.93497082561755351</v>
       </c>
       <c r="F47" s="4">
-        <f>F18/B18</f>
+        <f t="shared" si="11"/>
         <v>1.0701198420740017</v>
       </c>
       <c r="G47" s="4">
-        <f>G18/B18</f>
+        <f t="shared" si="12"/>
         <v>1.0950001746969009</v>
       </c>
       <c r="H47" s="4">
-        <f>H18/B18</f>
+        <f t="shared" si="13"/>
         <v>1.1034450228852941</v>
       </c>
     </row>
@@ -6343,31 +6322,31 @@
         <v>37</v>
       </c>
       <c r="B48" s="1">
-        <f>B19/B19</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C48" s="4">
-        <f>C19/B19</f>
+        <f t="shared" si="8"/>
         <v>0.88977180114099419</v>
       </c>
       <c r="D48" s="4">
-        <f>D19/B19</f>
+        <f t="shared" si="9"/>
         <v>0.99592502037489805</v>
       </c>
       <c r="E48" s="4">
-        <f>E19/B19</f>
+        <f t="shared" si="10"/>
         <v>1.154645476772616</v>
       </c>
       <c r="F48" s="4">
-        <f>F19/B19</f>
+        <f t="shared" si="11"/>
         <v>1.0242461287693561</v>
       </c>
       <c r="G48" s="4">
-        <f>G19/B19</f>
+        <f t="shared" si="12"/>
         <v>1.0922982885085573</v>
       </c>
       <c r="H48" s="4">
-        <f>H19/B19</f>
+        <f t="shared" si="13"/>
         <v>0.98247758761206183</v>
       </c>
     </row>
@@ -6376,31 +6355,31 @@
         <v>38</v>
       </c>
       <c r="B49" s="20">
-        <f>B20/B20</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C49" s="21">
-        <f>C20/B20</f>
+        <f t="shared" si="8"/>
         <v>0.99232780382257479</v>
       </c>
       <c r="D49" s="21">
-        <f>D20/B20</f>
+        <f t="shared" si="9"/>
         <v>0.97923278038225747</v>
       </c>
       <c r="E49" s="21">
-        <f>E20/B20</f>
+        <f t="shared" si="10"/>
         <v>0.977866931121529</v>
       </c>
       <c r="F49" s="21">
-        <f>F20/B20</f>
+        <f t="shared" si="11"/>
         <v>1.0199828705373242</v>
       </c>
       <c r="G49" s="21">
-        <f>G20/B20</f>
+        <f t="shared" si="12"/>
         <v>0.99233681932924622</v>
       </c>
       <c r="H49" s="21">
-        <f>H20/B20</f>
+        <f t="shared" si="13"/>
         <v>0.71797692030292104</v>
       </c>
     </row>
@@ -6419,31 +6398,31 @@
         <v>39</v>
       </c>
       <c r="B51" s="23">
-        <f>(SUM(B43:B49)+SUM(B30:B41))/19</f>
+        <f t="shared" ref="B51:H51" si="14">(SUM(B43:B49)+SUM(B30:B41))/19</f>
         <v>1</v>
       </c>
       <c r="C51" s="23">
-        <f>(SUM(C43:C49)+SUM(C30:C41))/19</f>
+        <f t="shared" si="14"/>
         <v>0.94368061750977195</v>
       </c>
       <c r="D51" s="23">
-        <f>(SUM(D43:D49)+SUM(D30:D41))/19</f>
+        <f t="shared" si="14"/>
         <v>0.98197095317659666</v>
       </c>
       <c r="E51" s="23">
-        <f>(SUM(E43:E49)+SUM(E30:E41))/19</f>
+        <f t="shared" si="14"/>
         <v>1.0658931700441125</v>
       </c>
       <c r="F51" s="23">
-        <f>(SUM(F43:F49)+SUM(F30:F41))/19</f>
+        <f t="shared" si="14"/>
         <v>1.0306492860698597</v>
       </c>
       <c r="G51" s="23">
-        <f>(SUM(G43:G49)+SUM(G30:G41))/19</f>
+        <f t="shared" si="14"/>
         <v>1.0435144282262692</v>
       </c>
       <c r="H51" s="23">
-        <f>(SUM(H43:H49)+SUM(H30:H41))/19</f>
+        <f t="shared" si="14"/>
         <v>1.005778854565287</v>
       </c>
     </row>
@@ -6509,31 +6488,31 @@
         <v>27</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" ref="B54:B56" si="7">B22/B22</f>
+        <f t="shared" ref="B54:B56" si="15">B22/B22</f>
         <v>1</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:C56" si="8">C22/B22</f>
+        <f t="shared" ref="C54:C56" si="16">C22/B22</f>
         <v>0.99069083782459577</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ref="D54:D56" si="9">D22/B22</f>
+        <f t="shared" ref="D54:D56" si="17">D22/B22</f>
         <v>43.761391474767265</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" ref="E54:E56" si="10">E22/B22</f>
+        <f t="shared" ref="E54:E56" si="18">E22/B22</f>
         <v>3.5061244487996079</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" ref="F54:F56" si="11">F22/B22</f>
+        <f t="shared" ref="F54:F56" si="19">F22/B22</f>
         <v>1.2155805973542382</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G56" si="12">G22/B22</f>
+        <f t="shared" ref="G54:G56" si="20">G22/B22</f>
         <v>0.94757471827535522</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" ref="H54:H56" si="13">H22/B22</f>
+        <f t="shared" ref="H54:H56" si="21">H22/B22</f>
         <v>1.0073493385595296</v>
       </c>
     </row>
@@ -6542,31 +6521,31 @@
         <v>28</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.19744027303754266</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.8575085324232081</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4.0843003412969283</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.75836177474402722</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.1467576791808873</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.77832764505119456</v>
       </c>
     </row>
@@ -6575,31 +6554,31 @@
         <v>29</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.739635106808602</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.9768358186402175</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.3337303388089824</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.3485578875136188</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.0152697231033436</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.59212066482763837</v>
       </c>
     </row>
@@ -6608,30 +6587,30 @@
         <v>39</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:H57" si="14">SUM(B53:B56)/4</f>
+        <f t="shared" ref="B57:H57" si="22">SUM(B53:B56)/4</f>
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.7700890112445633</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.0807821326696834</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.8641061661722198</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.0485157891226309</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.62828049006572684</v>
       </c>
     </row>
@@ -7844,31 +7823,31 @@
         <v>39</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:H108" si="15">(SUM(B89:B100)+SUM(B101:B107))/19</f>
+        <f t="shared" ref="B108:H108" si="23">(SUM(B89:B100)+SUM(B101:B107))/19</f>
         <v>1</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.0967086615315789</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.3312056657315789</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.3655996110105262</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.1687951702368422</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.0105906618894736</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.1697738261842103</v>
       </c>
     </row>
@@ -8011,27 +7990,27 @@
         <v>1</v>
       </c>
       <c r="C114" s="13">
-        <f t="shared" ref="C114:H114" si="16">SUM(C110:C113)/4</f>
+        <f t="shared" ref="C114:H114" si="24">SUM(C110:C113)/4</f>
         <v>2.3422047070000001</v>
       </c>
       <c r="D114" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.8488126909250002</v>
       </c>
       <c r="E114" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.9419551655</v>
       </c>
       <c r="F114" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.36924566225</v>
       </c>
       <c r="G114" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.99716404582499996</v>
       </c>
       <c r="H114" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.3386151339749999</v>
       </c>
     </row>

--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D352A2C-FCE5-4F45-B5FB-7D8AB6EBE647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B0D06-3F8F-A449-8FA4-2204F9E38703}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="460" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,15 +1522,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1593,9 +1585,7 @@
       </c:valAx>
       <c:spPr>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -1606,7 +1596,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15540941245521447"/>
-          <c:y val="3.4414947251641279E-2"/>
+          <c:y val="4.1297936701969538E-2"/>
           <c:w val="0.68918103928847829"/>
           <c:h val="6.2130090126514222E-2"/>
         </c:manualLayout>
@@ -5054,7 +5044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L17" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B0D06-3F8F-A449-8FA4-2204F9E38703}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3743CEB-0BD3-5A41-A65B-631FE667D44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="460" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1556,8 +1558,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.5311948614242303E-3"/>
-              <c:y val="0.211897455914935"/>
+              <c:x val="1.098426472843388E-2"/>
+              <c:y val="0.25893519001085197"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1582,6 +1584,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
@@ -5044,8 +5047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="143" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5782,23 +5785,23 @@
         <v>0.94790343074968231</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:D40" si="2">D3/B3</f>
+        <f>D3/B3</f>
         <v>0.96060991105463778</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:E40" si="3">E3/B3</f>
+        <f t="shared" ref="E31:E40" si="2">E3/B3</f>
         <v>1.1435832274459974</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" ref="F31:F40" si="4">F3/B3</f>
+        <f t="shared" ref="F31:F40" si="3">F3/B3</f>
         <v>0.96315120711562896</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31:G40" si="5">G3/B3</f>
+        <f t="shared" ref="G31:G40" si="4">G3/B3</f>
         <v>1.0127064803049555</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31:H40" si="6">H3/B3</f>
+        <f t="shared" ref="H31:H40" si="5">H3/B3</f>
         <v>1.0050825921219821</v>
       </c>
     </row>
@@ -5815,23 +5818,23 @@
         <v>0.87742382271121888</v>
       </c>
       <c r="D32" s="4">
+        <f t="shared" ref="D31:D40" si="6">D4/B4</f>
+        <v>0.91607513850415523</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="2"/>
-        <v>0.91607513850415523</v>
-      </c>
-      <c r="E32" s="4">
+        <v>0.9336045706371191</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="3"/>
-        <v>0.9336045706371191</v>
-      </c>
-      <c r="F32" s="4">
+        <v>0.93493767313019394</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="4"/>
-        <v>0.93493767313019394</v>
-      </c>
-      <c r="G32" s="4">
+        <v>1.0036790166204985</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="5"/>
-        <v>1.0036790166204985</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="6"/>
         <v>1.016187673130194</v>
       </c>
     </row>
@@ -5848,23 +5851,23 @@
         <v>0.97546012269938653</v>
       </c>
       <c r="D33" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9480962118998929</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="2"/>
-        <v>0.9480962118998929</v>
-      </c>
-      <c r="E33" s="4">
+        <v>1.075567241211413</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="3"/>
-        <v>1.075567241211413</v>
-      </c>
-      <c r="F33" s="4">
+        <v>0.95541922290388548</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="4"/>
-        <v>0.95541922290388548</v>
-      </c>
-      <c r="G33" s="4">
+        <v>0.96319018404907975</v>
+      </c>
+      <c r="H33" s="4">
         <f t="shared" si="5"/>
-        <v>0.96319018404907975</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="6"/>
         <v>0.96601421754795991</v>
       </c>
     </row>
@@ -5881,23 +5884,23 @@
         <v>1.0480623130687907</v>
       </c>
       <c r="D34" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0459111047134653</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="2"/>
-        <v>1.0459111047134653</v>
-      </c>
-      <c r="E34" s="4">
+        <v>1.0204804631895461</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="3"/>
-        <v>1.0204804631895461</v>
-      </c>
-      <c r="F34" s="4">
+        <v>1.0179294019800713</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="4"/>
-        <v>1.0179294019800713</v>
-      </c>
-      <c r="G34" s="4">
+        <v>1.0226636597732035</v>
+      </c>
+      <c r="H34" s="4">
         <f t="shared" si="5"/>
-        <v>1.0226636597732035</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="6"/>
         <v>1.0168657933880332</v>
       </c>
     </row>
@@ -5914,23 +5917,23 @@
         <v>1.0626134772008091</v>
       </c>
       <c r="D35" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0383877159309021</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="2"/>
-        <v>1.0383877159309021</v>
-      </c>
-      <c r="E35" s="4">
+        <v>1.0325776832494682</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="3"/>
-        <v>1.0325776832494682</v>
-      </c>
-      <c r="F35" s="4">
+        <v>1.0322768065570367</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="4"/>
-        <v>1.0322768065570367</v>
-      </c>
-      <c r="G35" s="4">
+        <v>1.0038906468848887</v>
+      </c>
+      <c r="H35" s="4">
         <f t="shared" si="5"/>
-        <v>1.0038906468848887</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="6"/>
         <v>1.0306064221611246</v>
       </c>
     </row>
@@ -5947,23 +5950,23 @@
         <v>0.86545623836126628</v>
       </c>
       <c r="D36" s="4">
+        <f t="shared" si="6"/>
+        <v>0.99329608938547487</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="2"/>
-        <v>0.99329608938547487</v>
-      </c>
-      <c r="E36" s="4">
+        <v>1.0004655493482308</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="3"/>
-        <v>1.0004655493482308</v>
-      </c>
-      <c r="F36" s="4">
+        <v>0.99515828677839846</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="4"/>
-        <v>0.99515828677839846</v>
-      </c>
-      <c r="G36" s="4">
+        <v>0.92923649906890127</v>
+      </c>
+      <c r="H36" s="4">
         <f t="shared" si="5"/>
-        <v>0.92923649906890127</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="6"/>
         <v>1.0268156424581005</v>
       </c>
     </row>
@@ -5980,23 +5983,23 @@
         <v>0.85557796741908454</v>
       </c>
       <c r="D37" s="4">
+        <f t="shared" si="6"/>
+        <v>0.802234290147401</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="2"/>
-        <v>0.802234290147401</v>
-      </c>
-      <c r="E37" s="4">
+        <v>0.81244375484871989</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="3"/>
-        <v>0.81244375484871989</v>
-      </c>
-      <c r="F37" s="4">
+        <v>0.96369899146625293</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="4"/>
-        <v>0.96369899146625293</v>
-      </c>
-      <c r="G37" s="4">
+        <v>0.99543832428238932</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="5"/>
-        <v>0.99543832428238932</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="6"/>
         <v>0.86755624515128005</v>
       </c>
     </row>
@@ -6013,23 +6016,23 @@
         <v>0.88172267809543714</v>
       </c>
       <c r="D38" s="4">
+        <f t="shared" si="6"/>
+        <v>0.96696806564574289</v>
+      </c>
+      <c r="E38" s="4">
         <f t="shared" si="2"/>
-        <v>0.96696806564574289</v>
-      </c>
-      <c r="E38" s="4">
+        <v>2.1129462185752361</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="3"/>
-        <v>2.1129462185752361</v>
-      </c>
-      <c r="F38" s="4">
+        <v>1.6412271990801233</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>1.6412271990801233</v>
-      </c>
-      <c r="G38" s="4">
+        <v>1.7255004442586106</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="5"/>
-        <v>1.7255004442586106</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="6"/>
         <v>1.4132127737417026</v>
       </c>
     </row>
@@ -6046,23 +6049,23 @@
         <v>0.99525616698292219</v>
       </c>
       <c r="D39" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0277729860272555</v>
+      </c>
+      <c r="E39" s="4">
         <f t="shared" si="2"/>
-        <v>1.0277729860272555</v>
-      </c>
-      <c r="E39" s="4">
+        <v>1.00060376056581</v>
+      </c>
+      <c r="F39" s="4">
         <f t="shared" si="3"/>
-        <v>1.00060376056581</v>
-      </c>
-      <c r="F39" s="4">
+        <v>0.99265137139899939</v>
+      </c>
+      <c r="G39" s="4">
         <f t="shared" si="4"/>
-        <v>0.99265137139899939</v>
-      </c>
-      <c r="G39" s="4">
+        <v>0.99741245471795759</v>
+      </c>
+      <c r="H39" s="4">
         <f t="shared" si="5"/>
-        <v>0.99741245471795759</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="6"/>
         <v>0.99335863377609113</v>
       </c>
     </row>
@@ -6079,23 +6082,23 @@
         <v>0.93550059241706163</v>
       </c>
       <c r="D40" s="4">
+        <f t="shared" si="6"/>
+        <v>0.99200236966824651</v>
+      </c>
+      <c r="E40" s="4">
         <f t="shared" si="2"/>
-        <v>0.99200236966824651</v>
-      </c>
-      <c r="E40" s="4">
+        <v>1.0494668246445498</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="3"/>
-        <v>1.0494668246445498</v>
-      </c>
-      <c r="F40" s="4">
+        <v>1.0039691943127962</v>
+      </c>
+      <c r="G40" s="4">
         <f t="shared" si="4"/>
-        <v>1.0039691943127962</v>
-      </c>
-      <c r="G40" s="4">
+        <v>0.97941350710900477</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="5"/>
-        <v>0.97941350710900477</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="6"/>
         <v>1.0027399289099526</v>
       </c>
     </row>

--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3743CEB-0BD3-5A41-A65B-631FE667D44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8857527-EC98-E846-9D04-28612FC9492B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1680" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
                   <c:v>0.85557796741908454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88172267809543714</c:v>
+                  <c:v>0.89141716566866258</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99525616698292219</c:v>
@@ -581,7 +581,7 @@
                   <c:v>0.99232780382257479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94368061750977195</c:v>
+                  <c:v>0.94419085369783651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +716,7 @@
                   <c:v>0.802234290147401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96696806564574289</c:v>
+                  <c:v>0.94251497005988016</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0277729860272555</c:v>
@@ -749,7 +749,7 @@
                   <c:v>0.97923278038225747</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98197095317659666</c:v>
+                  <c:v>0.98068394814576176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,47 +783,6 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13989890342487804"/>
-                  <c:y val="0.4291008805390335"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5022-F04D-85B7-8860F23F997B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$30:$A$51</c:f>
@@ -923,7 +882,7 @@
                   <c:v>0.81244375484871989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1129462185752361</c:v>
+                  <c:v>0.95409181636726537</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.00060376056581</c:v>
@@ -956,7 +915,7 @@
                   <c:v>0.977866931121529</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0658931700441125</c:v>
+                  <c:v>1.0049008330857983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1050,7 @@
                   <c:v>0.96369899146625293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6412271990801233</c:v>
+                  <c:v>0.97445109780439121</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99265137139899939</c:v>
@@ -1124,7 +1083,7 @@
                   <c:v>1.0199828705373242</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0306492860698597</c:v>
+                  <c:v>0.99555580705534763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1218,7 @@
                   <c:v>0.99543832428238932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7255004442586106</c:v>
+                  <c:v>0.99760479041916161</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99741245471795759</c:v>
@@ -1292,7 +1251,7 @@
                   <c:v>0.99233681932924622</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0435144282262692</c:v>
+                  <c:v>1.0052041306557717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1388,7 @@
                   <c:v>0.86755624515128005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4132127737417026</c:v>
+                  <c:v>1.0838323353293413</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99335863377609113</c:v>
@@ -1462,7 +1421,7 @@
                   <c:v>0.71797692030292104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.005778854565287</c:v>
+                  <c:v>0.98844304201726796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,7 +1586,6 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4695,59 +4653,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37621</cdr:x>
-      <cdr:y>0.10867</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.44275</cdr:x>
-      <cdr:y>0.17501</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB19A375-CADE-4846-9CC1-84B177B7A3DD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2770305" y="401020"/>
-          <a:ext cx="489981" cy="244812"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>2.11</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5047,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="143" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="143" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5290,25 +5195,25 @@
         <v>15</v>
       </c>
       <c r="B10" s="4">
-        <v>23.916250000000002</v>
+        <v>25.05</v>
       </c>
       <c r="C10" s="4">
-        <v>21.087499999999999</v>
+        <v>22.33</v>
       </c>
       <c r="D10" s="4">
-        <v>23.126249999999999</v>
+        <v>23.61</v>
       </c>
       <c r="E10" s="4">
-        <v>50.533749999999998</v>
+        <v>23.9</v>
       </c>
       <c r="F10" s="4">
-        <v>39.252000000000002</v>
+        <v>24.41</v>
       </c>
       <c r="G10" s="4">
-        <v>41.267499999999998</v>
+        <v>24.99</v>
       </c>
       <c r="H10" s="4">
-        <v>33.798749999999998</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6013,27 +5918,27 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>0.88172267809543714</v>
+        <v>0.89141716566866258</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="6"/>
-        <v>0.96696806564574289</v>
+        <v>0.94251497005988016</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="2"/>
-        <v>2.1129462185752361</v>
+        <f>E10/B10</f>
+        <v>0.95409181636726537</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="3"/>
-        <v>1.6412271990801233</v>
+        <v>0.97445109780439121</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="4"/>
-        <v>1.7255004442586106</v>
+        <v>0.99760479041916161</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="5"/>
-        <v>1.4132127737417026</v>
+        <v>1.0838323353293413</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6396,27 +6301,27 @@
       </c>
       <c r="C51" s="23">
         <f t="shared" si="14"/>
-        <v>0.94368061750977195</v>
+        <v>0.94419085369783651</v>
       </c>
       <c r="D51" s="23">
         <f t="shared" si="14"/>
-        <v>0.98197095317659666</v>
+        <v>0.98068394814576176</v>
       </c>
       <c r="E51" s="23">
         <f t="shared" si="14"/>
-        <v>1.0658931700441125</v>
+        <v>1.0049008330857983</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="14"/>
-        <v>1.0306492860698597</v>
+        <v>0.99555580705534763</v>
       </c>
       <c r="G51" s="23">
         <f t="shared" si="14"/>
-        <v>1.0435144282262692</v>
+        <v>1.0052041306557717</v>
       </c>
       <c r="H51" s="23">
         <f t="shared" si="14"/>
-        <v>1.005778854565287</v>
+        <v>0.98844304201726796</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1">

--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8857527-EC98-E846-9D04-28612FC9492B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3747A-FA4D-EF4B-8B8D-91D3350FC8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1680" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="660" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1478,7 +1478,7 @@
         <c:axId val="2124026792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1557,8 +1557,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15540941245521447"/>
-          <c:y val="4.1297936701969538E-2"/>
+          <c:x val="0.15540945693606045"/>
+          <c:y val="4.8081437489083757E-2"/>
           <c:w val="0.68918103928847829"/>
           <c:h val="6.2130090126514222E-2"/>
         </c:manualLayout>
@@ -4952,7 +4952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="143" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L12" zoomScale="143" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -5723,7 +5723,7 @@
         <v>0.87742382271121888</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D31:D40" si="6">D4/B4</f>
+        <f t="shared" ref="D32:D40" si="6">D4/B4</f>
         <v>0.91607513850415523</v>
       </c>
       <c r="E32" s="4">

--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3747A-FA4D-EF4B-8B8D-91D3350FC8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79869E34-8796-574F-A891-20CAA88E1703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="660" windowWidth="25480" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
   <si>
     <t>pthread</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>NUMAlloc</t>
+  </si>
+  <si>
+    <t>SQLite3</t>
   </si>
 </sst>
 </file>
@@ -494,22 +497,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -563,22 +566,22 @@
                   <c:v>1.0179410508329774</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.0654938681387793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88977180114099419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99232780382257479</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.65956313265849764</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.97616665280951398</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.99400879183210433</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0654938681387793</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.88977180114099419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99232780382257479</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.94419085369783651</c:v>
@@ -662,22 +665,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -731,22 +734,22 @@
                   <c:v>1.0226398974797095</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.99848013696237037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99592502037489805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97923278038225747</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.98668087373468305</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.99997133002864136</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.9888152297220647</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.99848013696237037</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99592502037489805</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.97923278038225747</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.98068394814576176</c:v>
@@ -828,22 +831,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -897,22 +900,22 @@
                   <c:v>1.0098248611704399</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.93497082561755351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.154645476772616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.977866931121529</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0095897709110282</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0000028669971359</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.98592597844583107</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.93497082561755351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.154645476772616</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.977866931121529</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.0049008330857983</c:v>
@@ -996,22 +999,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -1065,22 +1068,22 @@
                   <c:v>0.99752242631354127</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.0701198420740017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0242461287693561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0199828705373242</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.96750133191262655</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0001599784401816</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.99505104934770294</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0701198420740017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0242461287693561</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0199828705373242</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.99555580705534763</c:v>
@@ -1164,22 +1167,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -1233,22 +1236,22 @@
                   <c:v>1.0085433575395131</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.0950001746969009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0922982885085573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99233681932924622</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0026638252530635</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.99115531383584154</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1.0013648610323311</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0950001746969009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0922982885085573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99233681932924622</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.0052041306557717</c:v>
@@ -1334,22 +1337,22 @@
                   <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Apache</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memcached</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Pbzip2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Pfscan</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>SQLite</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Apache</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Memcached</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>MySQL</c:v>
+                  <c:v>SQLite3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>AVERAGE</c:v>
@@ -1403,22 +1406,22 @@
                   <c:v>1.0038445108927809</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.1034450228852941</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98247758761206183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71797692030292104</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.94725625998934482</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1.0005389954615436</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1.0433919455473626</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1034450228852941</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98247758761206183</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71797692030292104</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.98844304201726796</c:v>
@@ -4522,13 +4525,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4588,13 +4591,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4952,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L12" zoomScale="143" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="144" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6040,245 +6043,235 @@
         <v>0.97042145593869733</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="22" customFormat="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43:B49" si="7">B14/B14</f>
+        <f t="shared" ref="B43" si="7">B14/B14</f>
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ref="C43:C49" si="8">C14/B14</f>
+        <f t="shared" ref="C43" si="8">C14/B14</f>
         <v>1.0179410508329774</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:D49" si="9">D14/B14</f>
+        <f t="shared" ref="D43" si="9">D14/B14</f>
         <v>1.0226398974797095</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:E49" si="10">E14/B14</f>
+        <f t="shared" ref="E43" si="10">E14/B14</f>
         <v>1.0098248611704399</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ref="F43:F49" si="11">F14/B14</f>
+        <f t="shared" ref="F43" si="11">F14/B14</f>
         <v>0.99752242631354127</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" ref="G43:G49" si="12">G14/B14</f>
+        <f t="shared" ref="G43" si="12">G14/B14</f>
         <v>1.0085433575395131</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43:H49" si="13">H14/B14</f>
+        <f t="shared" ref="H43" si="13">H14/B14</f>
         <v>1.0038445108927809</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1">
+        <f>B18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <f>C18/B18</f>
+        <v>1.0654938681387793</v>
+      </c>
+      <c r="D44" s="4">
+        <f>D18/B18</f>
+        <v>0.99848013696237037</v>
+      </c>
+      <c r="E44" s="4">
+        <f>E18/B18</f>
+        <v>0.93497082561755351</v>
+      </c>
+      <c r="F44" s="4">
+        <f>F18/B18</f>
+        <v>1.0701198420740017</v>
+      </c>
+      <c r="G44" s="4">
+        <f>G18/B18</f>
+        <v>1.0950001746969009</v>
+      </c>
+      <c r="H44" s="4">
+        <f>H18/B18</f>
+        <v>1.1034450228852941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1">
+        <f>B19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <f>C19/B19</f>
+        <v>0.88977180114099419</v>
+      </c>
+      <c r="D45" s="4">
+        <f>D19/B19</f>
+        <v>0.99592502037489805</v>
+      </c>
+      <c r="E45" s="4">
+        <f>E19/B19</f>
+        <v>1.154645476772616</v>
+      </c>
+      <c r="F45" s="4">
+        <f>F19/B19</f>
+        <v>1.0242461287693561</v>
+      </c>
+      <c r="G45" s="4">
+        <f>G19/B19</f>
+        <v>1.0922982885085573</v>
+      </c>
+      <c r="H45" s="4">
+        <f>H19/B19</f>
+        <v>0.98247758761206183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="20">
+        <f>B20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="21">
+        <f>C20/B20</f>
+        <v>0.99232780382257479</v>
+      </c>
+      <c r="D46" s="21">
+        <f>D20/B20</f>
+        <v>0.97923278038225747</v>
+      </c>
+      <c r="E46" s="21">
+        <f>E20/B20</f>
+        <v>0.977866931121529</v>
+      </c>
+      <c r="F46" s="21">
+        <f>F20/B20</f>
+        <v>1.0199828705373242</v>
+      </c>
+      <c r="G46" s="21">
+        <f>G20/B20</f>
+        <v>0.99233681932924622</v>
+      </c>
+      <c r="H46" s="21">
+        <f>H20/B20</f>
+        <v>0.71797692030292104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="7"/>
+      <c r="B47" s="1">
+        <f>B15/B15</f>
         <v>1</v>
       </c>
-      <c r="C44" s="4">
-        <f t="shared" si="8"/>
+      <c r="C47" s="4">
+        <f>C15/B15</f>
         <v>0.65956313265849764</v>
       </c>
-      <c r="D44" s="4">
-        <f t="shared" si="9"/>
+      <c r="D47" s="4">
+        <f>D15/B15</f>
         <v>0.98668087373468305</v>
       </c>
-      <c r="E44" s="4">
-        <f t="shared" si="10"/>
+      <c r="E47" s="4">
+        <f>E15/B15</f>
         <v>1.0095897709110282</v>
       </c>
-      <c r="F44" s="4">
-        <f t="shared" si="11"/>
+      <c r="F47" s="4">
+        <f>F15/B15</f>
         <v>0.96750133191262655</v>
       </c>
-      <c r="G44" s="4">
-        <f t="shared" si="12"/>
+      <c r="G47" s="4">
+        <f>G15/B15</f>
         <v>1.0026638252530635</v>
       </c>
-      <c r="H44" s="4">
-        <f t="shared" si="13"/>
+      <c r="H47" s="4">
+        <f>H15/B15</f>
         <v>0.94725625998934482</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="7" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" si="7"/>
+      <c r="B48" s="1">
+        <f>B16/B16</f>
         <v>1</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" si="8"/>
+      <c r="C48" s="4">
+        <f>C16/B16</f>
         <v>0.97616665280951398</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" si="9"/>
+      <c r="D48" s="4">
+        <f>D16/B16</f>
         <v>0.99997133002864136</v>
       </c>
-      <c r="E45" s="4">
-        <f t="shared" si="10"/>
+      <c r="E48" s="4">
+        <f>E16/B16</f>
         <v>1.0000028669971359</v>
       </c>
-      <c r="F45" s="4">
-        <f t="shared" si="11"/>
+      <c r="F48" s="4">
+        <f>F16/B16</f>
         <v>1.0001599784401816</v>
       </c>
-      <c r="G45" s="4">
-        <f t="shared" si="12"/>
+      <c r="G48" s="4">
+        <f>G16/B16</f>
         <v>0.99115531383584154</v>
       </c>
-      <c r="H45" s="4">
-        <f t="shared" si="13"/>
+      <c r="H48" s="4">
+        <f>H16/B16</f>
         <v>1.0005389954615436</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="7"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <f>B17/B17</f>
         <v>1</v>
       </c>
-      <c r="C46" s="4">
-        <f t="shared" si="8"/>
+      <c r="C49" s="4">
+        <f>C17/B17</f>
         <v>0.99400879183210433</v>
       </c>
-      <c r="D46" s="4">
-        <f t="shared" si="9"/>
+      <c r="D49" s="4">
+        <f>D17/B17</f>
         <v>0.9888152297220647</v>
       </c>
-      <c r="E46" s="4">
-        <f t="shared" si="10"/>
+      <c r="E49" s="4">
+        <f>E17/B17</f>
         <v>0.98592597844583107</v>
       </c>
-      <c r="F46" s="4">
-        <f t="shared" si="11"/>
+      <c r="F49" s="4">
+        <f>F17/B17</f>
         <v>0.99505104934770294</v>
       </c>
-      <c r="G46" s="4">
-        <f t="shared" si="12"/>
+      <c r="G49" s="4">
+        <f>G17/B17</f>
         <v>1.0013648610323311</v>
       </c>
-      <c r="H46" s="4">
-        <f t="shared" si="13"/>
+      <c r="H49" s="4">
+        <f>H17/B17</f>
         <v>1.0433919455473626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="8"/>
-        <v>1.0654938681387793</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" si="9"/>
-        <v>0.99848013696237037</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="10"/>
-        <v>0.93497082561755351</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="11"/>
-        <v>1.0701198420740017</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="12"/>
-        <v>1.0950001746969009</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1034450228852941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="8"/>
-        <v>0.88977180114099419</v>
-      </c>
-      <c r="D48" s="4">
-        <f t="shared" si="9"/>
-        <v>0.99592502037489805</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="10"/>
-        <v>1.154645476772616</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="11"/>
-        <v>1.0242461287693561</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="12"/>
-        <v>1.0922982885085573</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98247758761206183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="22" customFormat="1">
-      <c r="A49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="20">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C49" s="21">
-        <f t="shared" si="8"/>
-        <v>0.99232780382257479</v>
-      </c>
-      <c r="D49" s="21">
-        <f t="shared" si="9"/>
-        <v>0.97923278038225747</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="10"/>
-        <v>0.977866931121529</v>
-      </c>
-      <c r="F49" s="21">
-        <f t="shared" si="11"/>
-        <v>1.0199828705373242</v>
-      </c>
-      <c r="G49" s="21">
-        <f t="shared" si="12"/>
-        <v>0.99233681932924622</v>
-      </c>
-      <c r="H49" s="21">
-        <f t="shared" si="13"/>
-        <v>0.71797692030292104</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1">
@@ -6296,31 +6289,31 @@
         <v>39</v>
       </c>
       <c r="B51" s="23">
-        <f t="shared" ref="B51:H51" si="14">(SUM(B43:B49)+SUM(B30:B41))/19</f>
+        <f>(SUM(B43:B49)+SUM(B30:B41))/19</f>
         <v>1</v>
       </c>
       <c r="C51" s="23">
-        <f t="shared" si="14"/>
+        <f>(SUM(C43:C49)+SUM(C30:C41))/19</f>
         <v>0.94419085369783651</v>
       </c>
       <c r="D51" s="23">
-        <f t="shared" si="14"/>
+        <f>(SUM(D43:D49)+SUM(D30:D41))/19</f>
         <v>0.98068394814576176</v>
       </c>
       <c r="E51" s="23">
-        <f t="shared" si="14"/>
+        <f>(SUM(E43:E49)+SUM(E30:E41))/19</f>
         <v>1.0049008330857983</v>
       </c>
       <c r="F51" s="23">
-        <f t="shared" si="14"/>
+        <f>(SUM(F43:F49)+SUM(F30:F41))/19</f>
         <v>0.99555580705534763</v>
       </c>
       <c r="G51" s="23">
-        <f t="shared" si="14"/>
+        <f>(SUM(G43:G49)+SUM(G30:G41))/19</f>
         <v>1.0052041306557717</v>
       </c>
       <c r="H51" s="23">
-        <f t="shared" si="14"/>
+        <f>(SUM(H43:H49)+SUM(H30:H41))/19</f>
         <v>0.98844304201726796</v>
       </c>
     </row>
@@ -6386,31 +6379,31 @@
         <v>27</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" ref="B54:B56" si="15">B22/B22</f>
+        <f t="shared" ref="B54:B56" si="14">B22/B22</f>
         <v>1</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:C56" si="16">C22/B22</f>
+        <f t="shared" ref="C54:C56" si="15">C22/B22</f>
         <v>0.99069083782459577</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ref="D54:D56" si="17">D22/B22</f>
+        <f t="shared" ref="D54:D56" si="16">D22/B22</f>
         <v>43.761391474767265</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" ref="E54:E56" si="18">E22/B22</f>
+        <f t="shared" ref="E54:E56" si="17">E22/B22</f>
         <v>3.5061244487996079</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" ref="F54:F56" si="19">F22/B22</f>
+        <f t="shared" ref="F54:F56" si="18">F22/B22</f>
         <v>1.2155805973542382</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G56" si="20">G22/B22</f>
+        <f t="shared" ref="G54:G56" si="19">G22/B22</f>
         <v>0.94757471827535522</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" ref="H54:H56" si="21">H22/B22</f>
+        <f t="shared" ref="H54:H56" si="20">H22/B22</f>
         <v>1.0073493385595296</v>
       </c>
     </row>
@@ -6419,31 +6412,31 @@
         <v>28</v>
       </c>
       <c r="B55" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="C55" s="4">
+        <v>0.19744027303754266</v>
+      </c>
+      <c r="D55" s="4">
         <f t="shared" si="16"/>
-        <v>0.19744027303754266</v>
-      </c>
-      <c r="D55" s="4">
+        <v>1.8575085324232081</v>
+      </c>
+      <c r="E55" s="4">
         <f t="shared" si="17"/>
-        <v>1.8575085324232081</v>
-      </c>
-      <c r="E55" s="4">
+        <v>4.0843003412969283</v>
+      </c>
+      <c r="F55" s="4">
         <f t="shared" si="18"/>
-        <v>4.0843003412969283</v>
-      </c>
-      <c r="F55" s="4">
+        <v>0.75836177474402722</v>
+      </c>
+      <c r="G55" s="4">
         <f t="shared" si="19"/>
-        <v>0.75836177474402722</v>
-      </c>
-      <c r="G55" s="4">
+        <v>1.1467576791808873</v>
+      </c>
+      <c r="H55" s="4">
         <f t="shared" si="20"/>
-        <v>1.1467576791808873</v>
-      </c>
-      <c r="H55" s="4">
-        <f t="shared" si="21"/>
         <v>0.77832764505119456</v>
       </c>
     </row>
@@ -6452,31 +6445,31 @@
         <v>29</v>
       </c>
       <c r="B56" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="C56" s="4">
+        <v>1.739635106808602</v>
+      </c>
+      <c r="D56" s="4">
         <f t="shared" si="16"/>
-        <v>1.739635106808602</v>
-      </c>
-      <c r="D56" s="4">
+        <v>1.9768358186402175</v>
+      </c>
+      <c r="E56" s="4">
         <f t="shared" si="17"/>
-        <v>1.9768358186402175</v>
-      </c>
-      <c r="E56" s="4">
+        <v>0.3337303388089824</v>
+      </c>
+      <c r="F56" s="4">
         <f t="shared" si="18"/>
-        <v>0.3337303388089824</v>
-      </c>
-      <c r="F56" s="4">
+        <v>1.3485578875136188</v>
+      </c>
+      <c r="G56" s="4">
         <f t="shared" si="19"/>
-        <v>1.3485578875136188</v>
-      </c>
-      <c r="G56" s="4">
+        <v>1.0152697231033436</v>
+      </c>
+      <c r="H56" s="4">
         <f t="shared" si="20"/>
-        <v>1.0152697231033436</v>
-      </c>
-      <c r="H56" s="4">
-        <f t="shared" si="21"/>
         <v>0.59212066482763837</v>
       </c>
     </row>
@@ -6485,30 +6478,30 @@
         <v>39</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:H57" si="22">SUM(B53:B56)/4</f>
+        <f t="shared" ref="B57:H57" si="21">SUM(B53:B56)/4</f>
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.7700890112445633</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.0807821326696834</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.8641061661722198</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0485157891226309</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.62828049006572684</v>
       </c>
     </row>
@@ -7721,31 +7714,31 @@
         <v>39</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:H108" si="23">(SUM(B89:B100)+SUM(B101:B107))/19</f>
+        <f t="shared" ref="B108:H108" si="22">(SUM(B89:B100)+SUM(B101:B107))/19</f>
         <v>1</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.0967086615315789</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.3312056657315789</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.3655996110105262</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.1687951702368422</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.0105906618894736</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.1697738261842103</v>
       </c>
     </row>
@@ -7888,27 +7881,27 @@
         <v>1</v>
       </c>
       <c r="C114" s="13">
-        <f t="shared" ref="C114:H114" si="24">SUM(C110:C113)/4</f>
+        <f t="shared" ref="C114:H114" si="23">SUM(C110:C113)/4</f>
         <v>2.3422047070000001</v>
       </c>
       <c r="D114" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.8488126909250002</v>
       </c>
       <c r="E114" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.9419551655</v>
       </c>
       <c r="F114" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.36924566225</v>
       </c>
       <c r="G114" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.99716404582499996</v>
       </c>
       <c r="H114" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.3386151339749999</v>
       </c>
     </row>

--- a/paper/data/regular/2node-final-pic.xlsx
+++ b/paper/data/regular/2node-final-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79869E34-8796-574F-A891-20CAA88E1703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCD44C1-D151-1943-9ED4-D3F788D0EE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1494,23 +1494,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200">
+                  <a:defRPr sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t> Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
                   <a:latin typeface="Times New Roman"/>
                 </a:endParaRPr>
               </a:p>
@@ -1520,8 +1520,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.098426472843388E-2"/>
-              <c:y val="0.25893519001085197"/>
+              <c:x val="1.6145377661125695E-2"/>
+              <c:y val="0.15987751531058617"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1560,8 +1560,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15540945693606045"/>
-          <c:y val="4.8081437489083757E-2"/>
+          <c:x val="0.15540949993189751"/>
+          <c:y val="6.9449071269937407E-2"/>
           <c:w val="0.68918103928847829"/>
           <c:h val="6.2130090126514222E-2"/>
         </c:manualLayout>
@@ -1572,7 +1572,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" baseline="0">
+            <a:defRPr sz="800" baseline="0">
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
@@ -4380,15 +4380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>567434</xdr:colOff>
+      <xdr:colOff>567432</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>44017</xdr:rowOff>
+      <xdr:rowOff>44016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>498522</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>111651</xdr:rowOff>
+      <xdr:colOff>583986</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4955,7 +4955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="144" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6289,31 +6289,31 @@
         <v>39</v>
       </c>
       <c r="B51" s="23">
-        <f>(SUM(B43:B49)+SUM(B30:B41))/19</f>
+        <f t="shared" ref="B51:H51" si="14">(SUM(B43:B49)+SUM(B30:B41))/19</f>
         <v>1</v>
       </c>
       <c r="C51" s="23">
-        <f>(SUM(C43:C49)+SUM(C30:C41))/19</f>
+        <f t="shared" si="14"/>
         <v>0.94419085369783651</v>
       </c>
       <c r="D51" s="23">
-        <f>(SUM(D43:D49)+SUM(D30:D41))/19</f>
+        <f t="shared" si="14"/>
         <v>0.98068394814576176</v>
       </c>
       <c r="E51" s="23">
-        <f>(SUM(E43:E49)+SUM(E30:E41))/19</f>
+        <f t="shared" si="14"/>
         <v>1.0049008330857983</v>
       </c>
       <c r="F51" s="23">
-        <f>(SUM(F43:F49)+SUM(F30:F41))/19</f>
+        <f t="shared" si="14"/>
         <v>0.99555580705534763</v>
       </c>
       <c r="G51" s="23">
-        <f>(SUM(G43:G49)+SUM(G30:G41))/19</f>
+        <f t="shared" si="14"/>
         <v>1.0052041306557717</v>
       </c>
       <c r="H51" s="23">
-        <f>(SUM(H43:H49)+SUM(H30:H41))/19</f>
+        <f t="shared" si="14"/>
         <v>0.98844304201726796</v>
       </c>
     </row>
@@ -6379,31 +6379,31 @@
         <v>27</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" ref="B54:B56" si="14">B22/B22</f>
+        <f t="shared" ref="B54:B56" si="15">B22/B22</f>
         <v>1</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:C56" si="15">C22/B22</f>
+        <f t="shared" ref="C54:C56" si="16">C22/B22</f>
         <v>0.99069083782459577</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ref="D54:D56" si="16">D22/B22</f>
+        <f t="shared" ref="D54:D56" si="17">D22/B22</f>
         <v>43.761391474767265</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" ref="E54:E56" si="17">E22/B22</f>
+        <f t="shared" ref="E54:E56" si="18">E22/B22</f>
         <v>3.5061244487996079</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" ref="F54:F56" si="18">F22/B22</f>
+        <f t="shared" ref="F54:F56" si="19">F22/B22</f>
         <v>1.2155805973542382</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G56" si="19">G22/B22</f>
+        <f t="shared" ref="G54:G56" si="20">G22/B22</f>
         <v>0.94757471827535522</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" ref="H54:H56" si="20">H22/B22</f>
+        <f t="shared" ref="H54:H56" si="21">H22/B22</f>
         <v>1.0073493385595296</v>
       </c>
     </row>
@@ -6412,31 +6412,31 @@
         <v>28</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.19744027303754266</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8575085324232081</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.0843003412969283</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.75836177474402722</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1467576791808873</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.77832764505119456</v>
       </c>
     </row>
@@ -6445,31 +6445,31 @@
         <v>29</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.739635106808602</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.9768358186402175</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.3337303388089824</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3485578875136188</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0152697231033436</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.59212066482763837</v>
       </c>
     </row>
@@ -6478,30 +6478,30 @@
         <v>39</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:H57" si="21">SUM(B53:B56)/4</f>
+        <f t="shared" ref="B57:H57" si="22">SUM(B53:B56)/4</f>
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.7700890112445633</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.0807821326696834</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.8641061661722198</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0485157891226309</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.62828049006572684</v>
       </c>
     </row>
@@ -7714,31 +7714,31 @@
         <v>39</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:H108" si="22">(SUM(B89:B100)+SUM(B101:B107))/19</f>
+        <f t="shared" ref="B108:H108" si="23">(SUM(B89:B100)+SUM(B101:B107))/19</f>
         <v>1</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0967086615315789</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3312056657315789</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3655996110105262</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1687951702368422</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0105906618894736</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1697738261842103</v>
       </c>
     </row>
@@ -7881,27 +7881,27 @@
         <v>1</v>
       </c>
       <c r="C114" s="13">
-        <f t="shared" ref="C114:H114" si="23">SUM(C110:C113)/4</f>
+        <f t="shared" ref="C114:H114" si="24">SUM(C110:C113)/4</f>
         <v>2.3422047070000001</v>
       </c>
       <c r="D114" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8488126909250002</v>
       </c>
       <c r="E114" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.9419551655</v>
       </c>
       <c r="F114" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.36924566225</v>
       </c>
       <c r="G114" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.99716404582499996</v>
       </c>
       <c r="H114" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3386151339749999</v>
       </c>
     </row>
